--- a/output/template_single_4g.xlsx
+++ b/output/template_single_4g.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://diuoagr-my.sharepoint.com/personal/grad0909_di_uoa_gr/Documents/Surecom/Surecom_KPI/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4DCBB4A06381AAC71CFC7EF616CCC8683EDF1C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E10FF54C-9533-4A85-A5BC-632699074796}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_AD4DCBB4A06381AAC71CFC7EF616CCC8683EDF1C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1B15A4BF-86B0-40D5-A279-4710293F65A2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,12 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
-    <t>UMTS RSCP (dBm)</t>
-  </si>
-  <si>
-    <t>UMTS Ec/Io (dB)</t>
-  </si>
-  <si>
     <t>Coverage Level</t>
   </si>
   <si>
@@ -76,15 +70,6 @@
     <t>-4 to 0</t>
   </si>
   <si>
-    <t>UMTS UARFCN</t>
-  </si>
-  <si>
-    <t>UMTS SC</t>
-  </si>
-  <si>
-    <t>Eir:input\EIR F-1 LTE.FMT</t>
-  </si>
-  <si>
     <t>&lt;= -110</t>
   </si>
   <si>
@@ -112,16 +97,31 @@
     <t>&gt;= -70</t>
   </si>
   <si>
-    <t>LTE  RSRP (dBm)</t>
-  </si>
-  <si>
-    <t>LTE RSRQ (dB)</t>
-  </si>
-  <si>
     <t>EARFCN</t>
   </si>
   <si>
-    <t>PCI</t>
+    <t>Eir:input\EIR F-4 LTE.FMT</t>
+  </si>
+  <si>
+    <t>4G RSRP (dBm)</t>
+  </si>
+  <si>
+    <t>4G RSRQ (dB)</t>
+  </si>
+  <si>
+    <t>4G EARFCN</t>
+  </si>
+  <si>
+    <t>4G SCI</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTE RSRQ (dB) </t>
+  </si>
+  <si>
+    <t>LTE RSRP (dBm)</t>
   </si>
 </sst>
 </file>
@@ -355,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,59 +386,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -721,82 +724,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection sqref="A1:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>30328</v>
+        <v>11958</v>
       </c>
       <c r="C3">
-        <v>0.241403464085583</v>
+        <v>0.28668009205983802</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>32483</v>
+        <v>7025</v>
       </c>
       <c r="C4">
-        <v>0.25855673713703498</v>
+        <v>0.16841676256233201</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>27443</v>
+        <v>13804</v>
       </c>
       <c r="C5">
-        <v>0.21843956953642299</v>
+        <v>0.330935941695435</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>25126</v>
+        <v>6953</v>
       </c>
       <c r="C6">
-        <v>0.199996816097809</v>
+        <v>0.166690640583045</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>10252</v>
+        <v>1972</v>
       </c>
       <c r="C7">
-        <v>8.1603413143148201E-2</v>
+        <v>4.7276563099347899E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -807,7 +810,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -818,7 +821,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -829,7 +832,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -840,7 +843,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -851,56 +854,56 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>23889</v>
+        <v>16417</v>
       </c>
       <c r="C15">
-        <v>0.190150598573611</v>
+        <v>0.39357978519370901</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>38953</v>
+        <v>23601</v>
       </c>
       <c r="C16">
-        <v>0.31005635506877199</v>
+        <v>0.56580840046029901</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>61231</v>
+        <v>1694</v>
       </c>
       <c r="C17">
-        <v>0.48738378757004502</v>
+        <v>4.0611814345991502E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>1559</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.240925878757E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -911,17 +914,17 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2962</v>
+        <v>225</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -932,18 +935,18 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10637</v>
+        <v>1875</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>41712</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10662</v>
+        <v>6200</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -952,80 +955,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>10687</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>225</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
+      <c r="A27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1875</v>
-      </c>
-      <c r="B28">
-        <v>125632</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="A28" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>6200</v>
+        <v>222</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>32781</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+        <v>0.78588895281933202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>41</v>
       </c>
-      <c r="B33">
-        <v>55955</v>
-      </c>
-      <c r="C33">
-        <v>0.44538811767702402</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>222</v>
-      </c>
-      <c r="B34">
-        <v>69677</v>
-      </c>
-      <c r="C34">
-        <v>0.55461188232297498</v>
+      <c r="B30">
+        <v>8931</v>
+      </c>
+      <c r="C30">
+        <v>0.21411104718066701</v>
       </c>
     </row>
   </sheetData>
@@ -1035,10 +994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC13D29-B219-4AE5-9192-3696E6318D31}">
-  <dimension ref="B2:D73"/>
+  <dimension ref="B2:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,68 +1009,68 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="C3" s="14"/>
       <c r="D3" s="1">
         <f>Input4G!C3</f>
-        <v>0.241403464085583</v>
+        <v>0.28668009205983802</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="1">
         <f>Input4G!C4</f>
-        <v>0.25855673713703498</v>
+        <v>0.16841676256233201</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="16"/>
       <c r="D5" s="1">
         <f>Input4G!C5</f>
-        <v>0.21843956953642299</v>
+        <v>0.330935941695435</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="1">
         <f>Input4G!C6</f>
-        <v>0.199996816097809</v>
+        <v>0.166690640583045</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="18"/>
       <c r="D7" s="1">
         <f>Input4G!C7</f>
-        <v>8.1603413143148201E-2</v>
+        <v>4.7276563099347899E-2</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="1">
         <f>Input4G!C8</f>
         <v>0</v>
@@ -1119,9 +1078,9 @@
     </row>
     <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="1">
         <f>Input4G!C9</f>
         <v>0</v>
@@ -1129,9 +1088,9 @@
     </row>
     <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="21"/>
       <c r="D10" s="1">
         <f>Input4G!C10</f>
         <v>0</v>
@@ -1139,9 +1098,9 @@
     </row>
     <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="23"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="22"/>
       <c r="D11" s="1">
         <f>Input4G!C11</f>
         <v>0</v>
@@ -1149,108 +1108,108 @@
     </row>
     <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="31"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="24"/>
       <c r="D12" s="1">
         <f>Input4G!C12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="str">
+      <c r="B13" s="27" t="str">
         <f>Input4G!A1</f>
-        <v>Eir:input\EIR F-1 LTE.FMT</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="27"/>
+        <v>Eir:input\EIR F-4 LTE.FMT</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="15" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="30"/>
       <c r="D15" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="1">
-        <f>Input4G!C14</f>
-        <v>0</v>
+        <f>Input4G!C15</f>
+        <v>0.39357978519370901</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="1">
-        <f>Input4G!C15</f>
-        <v>0.190150598573611</v>
+        <f>Input4G!C16</f>
+        <v>0.56580840046029901</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="1">
-        <f>Input4G!C16</f>
-        <v>0.31005635506877199</v>
+        <f>Input4G!C17</f>
+        <v>4.0611814345991502E-2</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="1">
-        <f>Input4G!C17</f>
-        <v>0.48738378757004502</v>
+        <f>Input4G!C18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="1">
-        <f>Input4G!C18</f>
-        <v>1.240925878757E-2</v>
+        <f>Input4G!C19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="str">
+      <c r="B21" s="27" t="str">
         <f>Input4G!A1</f>
-        <v>Eir:input\EIR F-1 LTE.FMT</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
+        <v>Eir:input\EIR F-4 LTE.FMT</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="str">
+      <c r="B23" s="31" t="str">
         <f>Input4G!A1</f>
-        <v>Eir:input\EIR F-1 LTE.FMT</v>
-      </c>
-      <c r="C23" s="24"/>
+        <v>Eir:input\EIR F-4 LTE.FMT</v>
+      </c>
+      <c r="C23" s="31"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <f>Input4G!A23</f>
-        <v>2962</v>
+        <v>225</v>
       </c>
       <c r="C25" s="1">
         <f>Input4G!C23</f>
@@ -1260,100 +1219,100 @@
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f>Input4G!A24</f>
-        <v>10637</v>
+        <v>1875</v>
       </c>
       <c r="C26" s="1">
         <f>Input4G!C24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <f>Input4G!A25</f>
-        <v>10662</v>
+        <v>6200</v>
       </c>
       <c r="C27" s="1">
         <f>Input4G!C25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
-        <f>Input4G!A26</f>
-        <v>10687</v>
-      </c>
-      <c r="C28" s="1">
-        <f>Input4G!C26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
-        <f>Input4G!A27</f>
-        <v>225</v>
-      </c>
-      <c r="C29" s="1">
-        <f>Input4G!C27</f>
-        <v>0</v>
-      </c>
+    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="str">
+        <f>Input4G!A1</f>
+        <v>Eir:input\EIR F-4 LTE.FMT</v>
+      </c>
+      <c r="C29" s="31"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
-        <f>Input4G!A28</f>
-        <v>1875</v>
-      </c>
-      <c r="C30" s="1">
-        <f>Input4G!C28</f>
-        <v>1</v>
+      <c r="B30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
+      <c r="B31" s="13">
         <f>Input4G!A29</f>
-        <v>6200</v>
+        <v>222</v>
       </c>
       <c r="C31" s="1">
         <f>Input4G!C29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="str">
-        <f>Input4G!A1</f>
-        <v>Eir:input\EIR F-1 LTE.FMT</v>
-      </c>
-      <c r="C33" s="24"/>
+        <v>0.78588895281933202</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="23">
+        <f>Input4G!A30</f>
+        <v>41</v>
+      </c>
+      <c r="C32" s="1">
+        <f>Input4G!C30</f>
+        <v>0.21411104718066701</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="23">
+        <f>Input4G!A31</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <f>Input4G!C31</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>4</v>
+      <c r="B34" s="23">
+        <f>Input4G!A32</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <f>Input4G!C32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="13">
+      <c r="B35" s="23">
         <f>Input4G!A33</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
         <f>Input4G!C33</f>
-        <v>0.44538811767702402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="14">
+      <c r="B36" s="23">
         <f>Input4G!A34</f>
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
         <f>Input4G!C34</f>
-        <v>0.55461188232297498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="14">
+      <c r="B37" s="23">
         <f>Input4G!A35</f>
         <v>0</v>
       </c>
@@ -1363,7 +1322,7 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="14">
+      <c r="B38" s="23">
         <f>Input4G!A36</f>
         <v>0</v>
       </c>
@@ -1373,7 +1332,7 @@
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="14">
+      <c r="B39" s="23">
         <f>Input4G!A37</f>
         <v>0</v>
       </c>
@@ -1383,7 +1342,7 @@
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="14">
+      <c r="B40" s="23">
         <f>Input4G!A38</f>
         <v>0</v>
       </c>
@@ -1393,7 +1352,7 @@
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="14">
+      <c r="B41" s="23">
         <f>Input4G!A39</f>
         <v>0</v>
       </c>
@@ -1403,7 +1362,7 @@
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="14">
+      <c r="B42" s="23">
         <f>Input4G!A40</f>
         <v>0</v>
       </c>
@@ -1413,7 +1372,7 @@
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="14">
+      <c r="B43" s="23">
         <f>Input4G!A41</f>
         <v>0</v>
       </c>
@@ -1423,7 +1382,7 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="14">
+      <c r="B44" s="23">
         <f>Input4G!A42</f>
         <v>0</v>
       </c>
@@ -1433,7 +1392,7 @@
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="14">
+      <c r="B45" s="23">
         <f>Input4G!A43</f>
         <v>0</v>
       </c>
@@ -1443,7 +1402,7 @@
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="14">
+      <c r="B46" s="23">
         <f>Input4G!A44</f>
         <v>0</v>
       </c>
@@ -1453,7 +1412,7 @@
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="14">
+      <c r="B47" s="23">
         <f>Input4G!A45</f>
         <v>0</v>
       </c>
@@ -1463,7 +1422,7 @@
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="14">
+      <c r="B48" s="23">
         <f>Input4G!A46</f>
         <v>0</v>
       </c>
@@ -1473,7 +1432,7 @@
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="14">
+      <c r="B49" s="23">
         <f>Input4G!A47</f>
         <v>0</v>
       </c>
@@ -1483,7 +1442,7 @@
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="14">
+      <c r="B50" s="23">
         <f>Input4G!A48</f>
         <v>0</v>
       </c>
@@ -1493,7 +1452,7 @@
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="14">
+      <c r="B51" s="23">
         <f>Input4G!A49</f>
         <v>0</v>
       </c>
@@ -1503,7 +1462,7 @@
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="14">
+      <c r="B52" s="23">
         <f>Input4G!A50</f>
         <v>0</v>
       </c>
@@ -1513,7 +1472,7 @@
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="14">
+      <c r="B53" s="23">
         <f>Input4G!A51</f>
         <v>0</v>
       </c>
@@ -1523,7 +1482,7 @@
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="14">
+      <c r="B54" s="23">
         <f>Input4G!A52</f>
         <v>0</v>
       </c>
@@ -1533,7 +1492,7 @@
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="14">
+      <c r="B55" s="23">
         <f>Input4G!A53</f>
         <v>0</v>
       </c>
@@ -1543,7 +1502,7 @@
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="14">
+      <c r="B56" s="23">
         <f>Input4G!A54</f>
         <v>0</v>
       </c>
@@ -1553,7 +1512,7 @@
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="14">
+      <c r="B57" s="23">
         <f>Input4G!A55</f>
         <v>0</v>
       </c>
@@ -1563,7 +1522,7 @@
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="14">
+      <c r="B58" s="23">
         <f>Input4G!A56</f>
         <v>0</v>
       </c>
@@ -1573,7 +1532,7 @@
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="14">
+      <c r="B59" s="23">
         <f>Input4G!A57</f>
         <v>0</v>
       </c>
@@ -1583,7 +1542,7 @@
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="14">
+      <c r="B60" s="23">
         <f>Input4G!A58</f>
         <v>0</v>
       </c>
@@ -1593,7 +1552,7 @@
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="14">
+      <c r="B61" s="23">
         <f>Input4G!A59</f>
         <v>0</v>
       </c>
@@ -1603,7 +1562,7 @@
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="14">
+      <c r="B62" s="23">
         <f>Input4G!A60</f>
         <v>0</v>
       </c>
@@ -1613,7 +1572,7 @@
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="14">
+      <c r="B63" s="23">
         <f>Input4G!A61</f>
         <v>0</v>
       </c>
@@ -1623,7 +1582,7 @@
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="14">
+      <c r="B64" s="23">
         <f>Input4G!A62</f>
         <v>0</v>
       </c>
@@ -1633,7 +1592,7 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="14">
+      <c r="B65" s="23">
         <f>Input4G!A63</f>
         <v>0</v>
       </c>
@@ -1643,7 +1602,7 @@
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="14">
+      <c r="B66" s="23">
         <f>Input4G!A64</f>
         <v>0</v>
       </c>
@@ -1653,7 +1612,7 @@
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="14">
+      <c r="B67" s="23">
         <f>Input4G!A65</f>
         <v>0</v>
       </c>
@@ -1663,7 +1622,7 @@
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="14">
+      <c r="B68" s="23">
         <f>Input4G!A66</f>
         <v>0</v>
       </c>
@@ -1673,7 +1632,7 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="14">
+      <c r="B69" s="23">
         <f>Input4G!A67</f>
         <v>0</v>
       </c>
@@ -1682,55 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="14">
-        <f>Input4G!A68</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="1">
-        <f>Input4G!C68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="14">
-        <f>Input4G!A69</f>
-        <v>0</v>
-      </c>
-      <c r="C71" s="1">
-        <f>Input4G!C69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="14">
-        <f>Input4G!A70</f>
-        <v>0</v>
-      </c>
-      <c r="C72" s="1">
-        <f>Input4G!C70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="14">
-        <f>Input4G!A71</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="1">
-        <f>Input4G!C71</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:C23"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/output/template_single_4g.xlsx
+++ b/output/template_single_4g.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://diuoagr-my.sharepoint.com/personal/grad0909_di_uoa_gr/Documents/Surecom/Surecom_KPI/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_AD4DCBB4A06381AAC71CFC7EF616CCC8683EDF1C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1B15A4BF-86B0-40D5-A279-4710293F65A2}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4DCBB4A06381AAC71CFC7EF616CCC8683EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D97B4DA-432C-477B-B04D-26AE8621DE10}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Coverage Level</t>
   </si>
@@ -37,72 +44,15 @@
     <t xml:space="preserve">Serving </t>
   </si>
   <si>
-    <t>-90 to -85</t>
-  </si>
-  <si>
-    <t>-85 to -80</t>
-  </si>
-  <si>
-    <t>-80 to -75</t>
-  </si>
-  <si>
-    <t>-75 to -70</t>
-  </si>
-  <si>
-    <t>&lt;= -13</t>
-  </si>
-  <si>
-    <t>-13 to -10</t>
-  </si>
-  <si>
-    <t>-10 to -7</t>
-  </si>
-  <si>
-    <t>-7 to -4</t>
-  </si>
-  <si>
-    <t>&gt;= -4</t>
-  </si>
-  <si>
-    <t>-34 to -13</t>
-  </si>
-  <si>
-    <t>-4 to 0</t>
-  </si>
-  <si>
-    <t>&lt;= -110</t>
-  </si>
-  <si>
-    <t>-110 to -105</t>
-  </si>
-  <si>
-    <t>-105 to -100</t>
-  </si>
-  <si>
-    <t>-100 to -95</t>
-  </si>
-  <si>
-    <t>-95 to -90</t>
-  </si>
-  <si>
-    <t>-70 to -15</t>
-  </si>
-  <si>
     <t>earfcn</t>
   </si>
   <si>
     <t>sci</t>
   </si>
   <si>
-    <t>&gt;= -70</t>
-  </si>
-  <si>
     <t>EARFCN</t>
   </si>
   <si>
-    <t>Eir:input\EIR F-4 LTE.FMT</t>
-  </si>
-  <si>
     <t>4G RSRP (dBm)</t>
   </si>
   <si>
@@ -122,6 +72,27 @@
   </si>
   <si>
     <t>LTE RSRP (dBm)</t>
+  </si>
+  <si>
+    <t>Eir:input\LTEBlockC2F20211001T115812Z.FMT</t>
+  </si>
+  <si>
+    <t>&lt;= -101</t>
+  </si>
+  <si>
+    <t>-101 to -94</t>
+  </si>
+  <si>
+    <t>-94 to -15</t>
+  </si>
+  <si>
+    <t>-34 to -14</t>
+  </si>
+  <si>
+    <t>-14 to 0</t>
+  </si>
+  <si>
+    <t>&gt;= -94</t>
   </si>
 </sst>
 </file>
@@ -174,7 +145,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,56 +166,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF48F836"/>
+        <fgColor theme="9"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF33CC33"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006600"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF44546A"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6DCE4"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -355,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,9 +299,6 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -376,73 +308,56 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,22 +639,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C30"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,10 +662,10 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>11958</v>
+        <v>25598</v>
       </c>
       <c r="C3">
-        <v>0.28668009205983802</v>
+        <v>0.25931741513275802</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -758,10 +673,10 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>7025</v>
+        <v>56636</v>
       </c>
       <c r="C4">
-        <v>0.16841676256233201</v>
+        <v>0.57374408639186303</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -769,222 +684,101 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>13804</v>
+        <v>16479</v>
       </c>
       <c r="C5">
-        <v>0.330935941695435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>6953</v>
-      </c>
-      <c r="C6">
-        <v>0.166690640583045</v>
+        <v>0.16693849847537801</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>1972</v>
-      </c>
-      <c r="C7">
-        <v>4.7276563099347899E-2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>5965</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>6.0395277727153002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>92801</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>0.93960472227284697</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>225</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
+      <c r="A14">
+        <v>1875</v>
+      </c>
+      <c r="B14">
+        <v>98766</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
+      <c r="A15">
+        <v>6200</v>
       </c>
       <c r="B15">
-        <v>16417</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.39357978519370901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>23601</v>
-      </c>
-      <c r="C16">
-        <v>0.56580840046029901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17">
-        <v>1694</v>
-      </c>
-      <c r="C17">
-        <v>4.0611814345991502E-2</v>
-      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
+      <c r="A19">
+        <v>321</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>98766</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>225</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1875</v>
-      </c>
-      <c r="B24">
-        <v>41712</v>
-      </c>
-      <c r="C24">
         <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>6200</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>222</v>
-      </c>
-      <c r="B29">
-        <v>32781</v>
-      </c>
-      <c r="C29">
-        <v>0.78588895281933202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>41</v>
-      </c>
-      <c r="B30">
-        <v>8931</v>
-      </c>
-      <c r="C30">
-        <v>0.21411104718066701</v>
       </c>
     </row>
   </sheetData>
@@ -994,10 +788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC13D29-B219-4AE5-9192-3696E6318D31}">
-  <dimension ref="B2:D69"/>
+  <dimension ref="B2:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,271 +802,290 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="1">
         <f>Input4G!C3</f>
-        <v>0.28668009205983802</v>
+        <v>0.25931741513275802</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1">
         <f>Input4G!C4</f>
-        <v>0.16841676256233201</v>
+        <v>0.57374408639186303</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="16"/>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="21"/>
       <c r="D5" s="1">
         <f>Input4G!C5</f>
-        <v>0.330935941695435</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+        <v>0.16693849847537801</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="str">
+        <f>Input4G!A1</f>
+        <v>Eir:input\LTEBlockC2F20211001T115812Z.FMT</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="1">
-        <f>Input4G!C6</f>
-        <v>0.166690640583045</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="1">
+        <f>Input4G!C8</f>
+        <v>6.0395277727153002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="1">
-        <f>Input4G!C7</f>
-        <v>4.7276563099347899E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="1">
-        <f>Input4G!C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="1">
+      <c r="C10" s="23"/>
+      <c r="D10" s="1">
         <f>Input4G!C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+        <v>0.93960472227284697</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="str">
+        <f>Input4G!A1</f>
+        <v>Eir:input\LTEBlockC2F20211001T115812Z.FMT</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="13" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="str">
+        <f>Input4G!A1</f>
+        <v>Eir:input\LTEBlockC2F20211001T115812Z.FMT</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="1">
-        <f>Input4G!C10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="1">
-        <f>Input4G!C11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="1">
-        <f>Input4G!C12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="str">
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <f>Input4G!A13</f>
+        <v>225</v>
+      </c>
+      <c r="C15" s="1">
+        <f>Input4G!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <f>Input4G!A14</f>
+        <v>1875</v>
+      </c>
+      <c r="C16" s="1">
+        <f>Input4G!C14</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <f>Input4G!A15</f>
+        <v>6200</v>
+      </c>
+      <c r="C17" s="1">
+        <f>Input4G!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="str">
         <f>Input4G!A1</f>
-        <v>Eir:input\EIR F-4 LTE.FMT</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="15" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="4" t="s">
+        <v>Eir:input\LTEBlockC2F20211001T115812Z.FMT</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <f>Input4G!A19</f>
+        <v>321</v>
+      </c>
+      <c r="C21" s="1">
+        <f>Input4G!C19</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1">
-        <f>Input4G!C15</f>
-        <v>0.39357978519370901</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="1">
-        <f>Input4G!C16</f>
-        <v>0.56580840046029901</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="1">
-        <f>Input4G!C17</f>
-        <v>4.0611814345991502E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="1">
-        <f>Input4G!C18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="1">
-        <f>Input4G!C19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="str">
-        <f>Input4G!A1</f>
-        <v>Eir:input\EIR F-4 LTE.FMT</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="str">
-        <f>Input4G!A1</f>
-        <v>Eir:input\EIR F-4 LTE.FMT</v>
-      </c>
-      <c r="C23" s="31"/>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <f>Input4G!A20</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <f>Input4G!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <f>Input4G!A21</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <f>Input4G!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B24" s="11">
+        <f>Input4G!A22</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <f>Input4G!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <f>Input4G!A23</f>
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <f>Input4G!C23</f>
         <v>0</v>
       </c>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <f>Input4G!A24</f>
-        <v>1875</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
         <f>Input4G!C24</f>
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <f>Input4G!A25</f>
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
         <f>Input4G!C25</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="31" t="str">
-        <f>Input4G!A1</f>
-        <v>Eir:input\EIR F-4 LTE.FMT</v>
-      </c>
-      <c r="C29" s="31"/>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
+        <f>Input4G!A26</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <f>Input4G!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
+        <f>Input4G!A27</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <f>Input4G!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B30" s="11">
+        <f>Input4G!A28</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <f>Input4G!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="13">
+      <c r="B31" s="11">
         <f>Input4G!A29</f>
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
         <f>Input4G!C29</f>
-        <v>0.78588895281933202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="23">
+      <c r="B32" s="11">
         <f>Input4G!A30</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
         <f>Input4G!C30</f>
-        <v>0.21411104718066701</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="23">
+        <v>0</v>
+      </c>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
         <f>Input4G!A31</f>
         <v>0</v>
       </c>
@@ -1280,9 +1093,10 @@
         <f>Input4G!C31</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="23">
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
         <f>Input4G!A32</f>
         <v>0</v>
       </c>
@@ -1290,9 +1104,10 @@
         <f>Input4G!C32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="23">
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
         <f>Input4G!A33</f>
         <v>0</v>
       </c>
@@ -1300,9 +1115,10 @@
         <f>Input4G!C33</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="23">
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
         <f>Input4G!A34</f>
         <v>0</v>
       </c>
@@ -1310,9 +1126,10 @@
         <f>Input4G!C34</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
+      <c r="D36" s="24"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
         <f>Input4G!A35</f>
         <v>0</v>
       </c>
@@ -1320,9 +1137,10 @@
         <f>Input4G!C35</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="23">
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
         <f>Input4G!A36</f>
         <v>0</v>
       </c>
@@ -1330,9 +1148,10 @@
         <f>Input4G!C36</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="23">
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
         <f>Input4G!A37</f>
         <v>0</v>
       </c>
@@ -1340,9 +1159,10 @@
         <f>Input4G!C37</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="23">
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
         <f>Input4G!A38</f>
         <v>0</v>
       </c>
@@ -1350,9 +1170,10 @@
         <f>Input4G!C38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="23">
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="11">
         <f>Input4G!A39</f>
         <v>0</v>
       </c>
@@ -1360,9 +1181,10 @@
         <f>Input4G!C39</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="23">
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="11">
         <f>Input4G!A40</f>
         <v>0</v>
       </c>
@@ -1370,9 +1192,10 @@
         <f>Input4G!C40</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="23">
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="11">
         <f>Input4G!A41</f>
         <v>0</v>
       </c>
@@ -1380,9 +1203,10 @@
         <f>Input4G!C41</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="23">
+      <c r="D43" s="24"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
         <f>Input4G!A42</f>
         <v>0</v>
       </c>
@@ -1390,9 +1214,10 @@
         <f>Input4G!C42</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="23">
+      <c r="D44" s="24"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
         <f>Input4G!A43</f>
         <v>0</v>
       </c>
@@ -1400,9 +1225,10 @@
         <f>Input4G!C43</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="23">
+      <c r="D45" s="24"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
         <f>Input4G!A44</f>
         <v>0</v>
       </c>
@@ -1410,9 +1236,10 @@
         <f>Input4G!C44</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="23">
+      <c r="D46" s="24"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="11">
         <f>Input4G!A45</f>
         <v>0</v>
       </c>
@@ -1420,9 +1247,10 @@
         <f>Input4G!C45</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="23">
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="11">
         <f>Input4G!A46</f>
         <v>0</v>
       </c>
@@ -1430,9 +1258,10 @@
         <f>Input4G!C46</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="23">
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="11">
         <f>Input4G!A47</f>
         <v>0</v>
       </c>
@@ -1440,9 +1269,10 @@
         <f>Input4G!C47</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="23">
+      <c r="D49" s="24"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="11">
         <f>Input4G!A48</f>
         <v>0</v>
       </c>
@@ -1450,9 +1280,10 @@
         <f>Input4G!C48</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="23">
+      <c r="D50" s="24"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="11">
         <f>Input4G!A49</f>
         <v>0</v>
       </c>
@@ -1460,9 +1291,10 @@
         <f>Input4G!C49</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="23">
+      <c r="D51" s="24"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="11">
         <f>Input4G!A50</f>
         <v>0</v>
       </c>
@@ -1470,9 +1302,10 @@
         <f>Input4G!C50</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="23">
+      <c r="D52" s="24"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="11">
         <f>Input4G!A51</f>
         <v>0</v>
       </c>
@@ -1480,9 +1313,10 @@
         <f>Input4G!C51</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="23">
+      <c r="D53" s="24"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="11">
         <f>Input4G!A52</f>
         <v>0</v>
       </c>
@@ -1490,9 +1324,10 @@
         <f>Input4G!C52</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="23">
+      <c r="D54" s="24"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="11">
         <f>Input4G!A53</f>
         <v>0</v>
       </c>
@@ -1500,9 +1335,10 @@
         <f>Input4G!C53</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="23">
+      <c r="D55" s="24"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="11">
         <f>Input4G!A54</f>
         <v>0</v>
       </c>
@@ -1510,9 +1346,10 @@
         <f>Input4G!C54</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="23">
+      <c r="D56" s="24"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="11">
         <f>Input4G!A55</f>
         <v>0</v>
       </c>
@@ -1520,9 +1357,10 @@
         <f>Input4G!C55</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="23">
+      <c r="D57" s="24"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="11">
         <f>Input4G!A56</f>
         <v>0</v>
       </c>
@@ -1530,9 +1368,10 @@
         <f>Input4G!C56</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="23">
+      <c r="D58" s="24"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="11">
         <f>Input4G!A57</f>
         <v>0</v>
       </c>
@@ -1540,106 +1379,7 @@
         <f>Input4G!C57</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="23">
-        <f>Input4G!A58</f>
-        <v>0</v>
-      </c>
-      <c r="C60" s="1">
-        <f>Input4G!C58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="23">
-        <f>Input4G!A59</f>
-        <v>0</v>
-      </c>
-      <c r="C61" s="1">
-        <f>Input4G!C59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="23">
-        <f>Input4G!A60</f>
-        <v>0</v>
-      </c>
-      <c r="C62" s="1">
-        <f>Input4G!C60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="23">
-        <f>Input4G!A61</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="1">
-        <f>Input4G!C61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="23">
-        <f>Input4G!A62</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="1">
-        <f>Input4G!C62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="23">
-        <f>Input4G!A63</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="1">
-        <f>Input4G!C63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="23">
-        <f>Input4G!A64</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="1">
-        <f>Input4G!C64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="23">
-        <f>Input4G!A65</f>
-        <v>0</v>
-      </c>
-      <c r="C67" s="1">
-        <f>Input4G!C65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="23">
-        <f>Input4G!A66</f>
-        <v>0</v>
-      </c>
-      <c r="C68" s="1">
-        <f>Input4G!C66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="23">
-        <f>Input4G!A67</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="1">
-        <f>Input4G!C67</f>
-        <v>0</v>
-      </c>
+      <c r="D59" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/template_single_4g.xlsx
+++ b/output/template_single_4g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://diuoagr-my.sharepoint.com/personal/grad0909_di_uoa_gr/Documents/Surecom/Surecom_KPI/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4DCBB4A06381AAC71CFC7EF616CCC8683EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D97B4DA-432C-477B-B04D-26AE8621DE10}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_AD4DCBB4A06381AAC71CFC7EF616CCC8683EDF1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EE24D38-EB79-4D57-A01B-1BF7DEE1C417}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input4G" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Coverage Level</t>
   </si>
@@ -92,7 +92,13 @@
     <t>-14 to 0</t>
   </si>
   <si>
-    <t>&gt;= -94</t>
+    <t>&lt;= -110</t>
+  </si>
+  <si>
+    <t>-110 to -100</t>
+  </si>
+  <si>
+    <t>&gt;= -100</t>
   </si>
 </sst>
 </file>
@@ -791,7 +797,7 @@
   <dimension ref="B2:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +818,7 @@
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="1">
@@ -822,7 +828,7 @@
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="1">
@@ -832,7 +838,7 @@
     </row>
     <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="1">
